--- a/FullResults.xlsx
+++ b/FullResults.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\FP_IDS_DDoS-Detection_Agung-Mulyono_05311840000035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900ED0A0-61F7-4A1B-A923-7DCE0B7C0EDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9008DB3-9F13-4A2D-B20D-0348D21C6833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Evalutaion" sheetId="1" r:id="rId1"/>
     <sheet name="DDoS Detection" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -12253,30 +12262,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF128" sqref="AF128"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:19" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E2" s="2">
         <v>5</v>
       </c>
@@ -12323,7 +12330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -12388,7 +12395,7 @@
         <v>0.9936657241153749</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="2">
         <v>5</v>
@@ -12436,7 +12443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
@@ -12501,7 +12508,7 @@
         <v>4.9470036000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -12566,7 +12573,7 @@
         <v>3.3886696000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -12631,7 +12638,7 @@
         <v>1.5583340000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="2">
         <v>5</v>
@@ -12679,7 +12686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -12744,7 +12751,7 @@
         <v>0.9992586303036447</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
@@ -12809,7 +12816,7 @@
         <v>0.98312372353004407</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
@@ -12874,7 +12881,7 @@
         <v>0.99119117691684444</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="E12" s="2">
         <v>5</v>
@@ -12922,7 +12929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
@@ -12987,7 +12994,7 @@
         <v>0.99111946301975962</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
@@ -13052,7 +13059,7 @@
         <v>0.98312372353004407</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
@@ -13117,7 +13124,7 @@
         <v>0.98712159327490179</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="2">
         <v>5</v>
@@ -13165,7 +13172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
@@ -13230,7 +13237,7 @@
         <v>0.99517240508885296</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
@@ -13295,7 +13302,7 @@
         <v>0.98312372353004407</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
@@ -13360,7 +13367,7 @@
         <v>0.98914806430944857</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -13378,7 +13385,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <v>5</v>
       </c>
@@ -13425,7 +13432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13490,7 +13497,7 @@
         <v>157699</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
@@ -13555,7 +13562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
@@ -13620,7 +13627,7 @@
         <v>82314</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
@@ -13688,7 +13695,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -13754,7 +13761,7 @@
         <v>4.9470036000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C28" s="11"/>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -13820,7 +13827,7 @@
         <v>3.3886696000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>25</v>
@@ -13886,7 +13893,7 @@
         <v>1.5583340000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C30" s="11"/>
       <c r="D30" s="3" t="s">
         <v>21</v>
@@ -13952,7 +13959,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C31" s="11"/>
       <c r="D31" s="3" t="s">
         <v>22</v>
@@ -14018,7 +14025,7 @@
         <v>74.20591018799999</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -14027,7 +14034,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -14081,7 +14088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
         <v>0</v>
@@ -14132,7 +14139,7 @@
         <v>157624</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
@@ -14182,7 +14189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
@@ -14232,7 +14239,7 @@
         <v>82361</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
@@ -14285,7 +14292,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
         <v>5</v>
@@ -14336,7 +14343,7 @@
         <v>4.6844730000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
         <v>6</v>
@@ -14387,7 +14394,7 @@
         <v>3.4324609999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C40" s="11"/>
       <c r="D40" s="3" t="s">
         <v>25</v>
@@ -14453,7 +14460,7 @@
         <v>1.2520120000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
         <v>21</v>
@@ -14504,7 +14511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
         <v>22</v>
@@ -14555,7 +14562,7 @@
         <v>98.769036799999995</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C43" s="11"/>
       <c r="E43" s="2">
         <v>5</v>
@@ -14603,7 +14610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
         <v>0</v>
@@ -14654,7 +14661,7 @@
         <v>157444</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
         <v>3</v>
@@ -14705,7 +14712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
         <v>2</v>
       </c>
@@ -14755,7 +14762,7 @@
         <v>82618</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C47" s="11" t="s">
         <v>27</v>
       </c>
@@ -14808,7 +14815,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C48" s="11"/>
       <c r="D48" s="3" t="s">
         <v>5</v>
@@ -14859,7 +14866,7 @@
         <v>5.23758E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C49" s="11"/>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -14910,7 +14917,7 @@
         <v>3.3738039999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C50" s="11"/>
       <c r="D50" s="3" t="s">
         <v>25</v>
@@ -14976,7 +14983,7 @@
         <v>1.8637760000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C51" s="11"/>
       <c r="D51" s="3" t="s">
         <v>21</v>
@@ -15027,7 +15034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C52" s="11"/>
       <c r="D52" s="3" t="s">
         <v>22</v>
@@ -15078,7 +15085,7 @@
         <v>63.173722339999998</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C53" s="11"/>
       <c r="E53" s="2">
         <v>5</v>
@@ -15126,7 +15133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C54" s="11"/>
       <c r="D54" s="3" t="s">
         <v>0</v>
@@ -15177,7 +15184,7 @@
         <v>157614</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C55" s="11"/>
       <c r="D55" s="3" t="s">
         <v>3</v>
@@ -15228,7 +15235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D56" s="3" t="s">
         <v>2</v>
       </c>
@@ -15278,7 +15285,7 @@
         <v>82412</v>
       </c>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C57" s="11" t="s">
         <v>28</v>
       </c>
@@ -15331,7 +15338,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C58" s="11"/>
       <c r="D58" s="3" t="s">
         <v>5</v>
@@ -15382,7 +15389,7 @@
         <v>4.7248789999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C59" s="11"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
@@ -15433,7 +15440,7 @@
         <v>3.3882679999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C60" s="11"/>
       <c r="D60" s="3" t="s">
         <v>25</v>
@@ -15499,7 +15506,7 @@
         <v>1.336611E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C61" s="11"/>
       <c r="D61" s="3" t="s">
         <v>21</v>
@@ -15550,7 +15557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C62" s="11"/>
       <c r="D62" s="3" t="s">
         <v>22</v>
@@ -15601,7 +15608,7 @@
         <v>49.315799300000002</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C63" s="11"/>
       <c r="E63" s="2">
         <v>5</v>
@@ -15649,7 +15656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C64" s="11"/>
       <c r="D64" s="3" t="s">
         <v>0</v>
@@ -15700,7 +15707,7 @@
         <v>157771</v>
       </c>
     </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C65" s="11"/>
       <c r="D65" s="3" t="s">
         <v>3</v>
@@ -15751,7 +15758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D66" s="3" t="s">
         <v>2</v>
       </c>
@@ -15801,7 +15808,7 @@
         <v>82217</v>
       </c>
     </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C67" s="11" t="s">
         <v>32</v>
       </c>
@@ -15854,7 +15861,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C68" s="11"/>
       <c r="D68" s="3" t="s">
         <v>5</v>
@@ -15905,7 +15912,7 @@
         <v>4.8375109999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C69" s="11"/>
       <c r="D69" s="3" t="s">
         <v>6</v>
@@ -15956,7 +15963,7 @@
         <v>3.4390860000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C70" s="11"/>
       <c r="D70" s="3" t="s">
         <v>25</v>
@@ -16022,7 +16029,7 @@
         <v>1.3984249999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C71" s="11"/>
       <c r="D71" s="3" t="s">
         <v>21</v>
@@ -16073,7 +16080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C72" s="11"/>
       <c r="D72" s="3" t="s">
         <v>22</v>
@@ -16124,7 +16131,7 @@
         <v>85.476792000000003</v>
       </c>
     </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C73" s="11"/>
       <c r="E73" s="2">
         <v>5</v>
@@ -16172,7 +16179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C74" s="11"/>
       <c r="D74" s="3" t="s">
         <v>0</v>
@@ -16223,7 +16230,7 @@
         <v>158042</v>
       </c>
     </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C75" s="11"/>
       <c r="D75" s="3" t="s">
         <v>3</v>
@@ -16274,7 +16281,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D76" s="3" t="s">
         <v>2</v>
       </c>
@@ -16324,7 +16331,7 @@
         <v>81962</v>
       </c>
     </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C77" s="11" t="s">
         <v>30</v>
       </c>
@@ -16377,7 +16384,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C78" s="11"/>
       <c r="D78" s="3" t="s">
         <v>5</v>
@@ -16428,7 +16435,7 @@
         <v>5.2505749999999997E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C79" s="11"/>
       <c r="D79" s="3" t="s">
         <v>6</v>
@@ -16479,7 +16486,7 @@
         <v>3.3097290000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C80" s="11"/>
       <c r="D80" s="3" t="s">
         <v>25</v>
@@ -16545,7 +16552,7 @@
         <v>1.9408459999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C81" s="11"/>
       <c r="D81" s="3" t="s">
         <v>21</v>
@@ -16596,7 +16603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C82" s="11"/>
       <c r="D82" s="3" t="s">
         <v>22</v>
@@ -16647,16 +16654,16 @@
         <v>74.294200500000002</v>
       </c>
     </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C85" s="11"/>
     </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:19" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>5</v>
       </c>
@@ -16703,7 +16710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>5</v>
       </c>
@@ -16753,7 +16760,7 @@
         <v>4.9470036000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>6</v>
       </c>
@@ -16803,7 +16810,7 @@
         <v>3.3886696000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>25</v>
       </c>
@@ -16853,7 +16860,7 @@
         <v>1.5583340000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:38" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>19</v>
       </c>
@@ -16912,7 +16919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>5</v>
       </c>
@@ -16995,7 +17002,7 @@
         <v>7.1694047600000008</v>
       </c>
     </row>
-    <row r="99" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>10</v>
       </c>
@@ -17078,7 +17085,7 @@
         <v>9.4543102399999999</v>
       </c>
     </row>
-    <row r="100" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>25</v>
       </c>
@@ -17161,7 +17168,7 @@
         <v>11.556937399999999</v>
       </c>
     </row>
-    <row r="101" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>50</v>
       </c>
@@ -17244,7 +17251,7 @@
         <v>25.030094200000001</v>
       </c>
     </row>
-    <row r="102" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D102">
         <v>100</v>
       </c>
@@ -17327,7 +17334,7 @@
         <v>31.971290459999999</v>
       </c>
     </row>
-    <row r="103" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17417,7 @@
         <v>13.313871880000002</v>
       </c>
     </row>
-    <row r="104" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>8</v>
       </c>
@@ -17493,7 +17500,7 @@
         <v>13.186497085999999</v>
       </c>
     </row>
-    <row r="105" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>33</v>
       </c>
@@ -17576,7 +17583,7 @@
         <v>18.262561779999999</v>
       </c>
     </row>
-    <row r="106" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>9</v>
       </c>
@@ -17659,7 +17666,7 @@
         <v>32.711347919999994</v>
       </c>
     </row>
-    <row r="107" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>24</v>
       </c>
@@ -17742,7 +17749,7 @@
         <v>55.508996440000011</v>
       </c>
     </row>
-    <row r="108" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>10</v>
       </c>
@@ -17825,7 +17832,7 @@
         <v>9.6410590399999982</v>
       </c>
     </row>
-    <row r="109" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>11</v>
       </c>
@@ -17908,7 +17915,7 @@
         <v>17.534892300000003</v>
       </c>
     </row>
-    <row r="110" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>34</v>
       </c>
@@ -17991,7 +17998,7 @@
         <v>21.039628200000003</v>
       </c>
     </row>
-    <row r="111" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>12</v>
       </c>
@@ -18074,7 +18081,7 @@
         <v>32.101172099999999</v>
       </c>
     </row>
-    <row r="112" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:38" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>23</v>
       </c>
@@ -18157,7 +18164,7 @@
         <v>74.20591018799999</v>
       </c>
     </row>
-    <row r="132" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E132">
         <v>5</v>
       </c>
@@ -18204,7 +18211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>0</v>
       </c>
@@ -18254,7 +18261,7 @@
         <v>157699</v>
       </c>
     </row>
-    <row r="134" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>3</v>
       </c>
@@ -18304,7 +18311,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>2</v>
       </c>
@@ -18354,7 +18361,7 @@
         <v>82314</v>
       </c>
     </row>
-    <row r="136" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>1</v>
       </c>
@@ -18404,7 +18411,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="139" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E139">
         <v>5</v>
       </c>
@@ -18451,7 +18458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>13</v>
       </c>
@@ -18501,7 +18508,7 @@
         <v>0.9992586303036447</v>
       </c>
     </row>
-    <row r="141" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>14</v>
       </c>
@@ -18551,7 +18558,7 @@
         <v>0.98312372353004407</v>
       </c>
     </row>
-    <row r="142" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>15</v>
       </c>
@@ -18601,7 +18608,7 @@
         <v>0.99119117691684444</v>
       </c>
     </row>
-    <row r="144" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E144">
         <v>5</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>16</v>
       </c>
@@ -18698,7 +18705,7 @@
         <v>0.99111946301975962</v>
       </c>
     </row>
-    <row r="146" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>17</v>
       </c>
@@ -18748,7 +18755,7 @@
         <v>0.98312372353004407</v>
       </c>
     </row>
-    <row r="147" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>18</v>
       </c>
@@ -18798,7 +18805,7 @@
         <v>0.98712159327490179</v>
       </c>
     </row>
-    <row r="151" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E151">
         <v>5</v>
       </c>
@@ -18845,7 +18852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>22</v>
       </c>
@@ -18919,19 +18926,19 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -18954,7 +18961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>39</v>
@@ -18978,7 +18985,7 @@
         <v>15482</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -19002,7 +19009,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>41</v>
@@ -19026,7 +19033,7 @@
         <v>8815</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>42</v>
@@ -19055,7 +19062,7 @@
         <v>56.937088231494634</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>43</v>
@@ -19079,7 +19086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>46</v>
@@ -19103,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
@@ -19126,7 +19133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
@@ -19150,7 +19157,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -19174,7 +19181,7 @@
         <v>5689</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -19198,7 +19205,7 @@
         <v>11311</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -19227,7 +19234,7 @@
         <v>66.535294117647055</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>43</v>
@@ -19251,7 +19258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>46</v>
@@ -19275,7 +19282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
@@ -19298,7 +19305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -19322,7 +19329,7 @@
         <v>16908</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>40</v>
@@ -19346,7 +19353,7 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -19370,7 +19377,7 @@
         <v>11345</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -19399,7 +19406,7 @@
         <v>67.098414951502249</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>43</v>
@@ -19423,7 +19430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>46</v>
@@ -19447,7 +19454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -19470,7 +19477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -19494,7 +19501,7 @@
         <v>17236</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -19518,7 +19525,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>41</v>
@@ -19542,7 +19549,7 @@
         <v>11548</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -19571,7 +19578,7 @@
         <v>66.999303782780231</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -19595,7 +19602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>46</v>
@@ -19619,7 +19626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -19642,7 +19649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -19666,7 +19673,7 @@
         <v>17036</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>40</v>
@@ -19690,7 +19697,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="3" t="s">
         <v>41</v>
@@ -19714,7 +19721,7 @@
         <v>11402</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>42</v>
@@ -19743,7 +19750,7 @@
         <v>66.928856539093687</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>43</v>
@@ -19767,7 +19774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
         <v>46</v>
@@ -19791,7 +19798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>31</v>
       </c>
@@ -19814,7 +19821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
         <v>39</v>
@@ -19844,7 +19851,7 @@
         <v>16732.400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="3" t="s">
         <v>40</v>
@@ -19874,7 +19881,7 @@
         <v>5848.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="3" t="s">
         <v>41</v>
@@ -19904,7 +19911,7 @@
         <v>10884.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
         <v>42</v>
@@ -19934,7 +19941,7 @@
         <v>64.89979152450357</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
         <v>51</v>
@@ -19958,7 +19965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
     </row>
